--- a/document/excel_upload_자료/TBL_EXP_VALUATION_TAX_YEAR.xlsx
+++ b/document/excel_upload_자료/TBL_EXP_VALUATION_TAX_YEAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\두견\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD77B38D-67D0-4210-A1E9-826357A1B169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58DFE24E-B505-4CAC-86E6-080EE7A84A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="1320" windowWidth="21600" windowHeight="11325" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6D2D0EB2-4C99-4140-BE5A-DB21D3AD8003}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>Table명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,159 +77,194 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>25FC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>32,956원</t>
+  </si>
+  <si>
+    <t>296,157원</t>
+  </si>
+  <si>
+    <t>1,050,713원</t>
+  </si>
+  <si>
+    <t>3,703,446원</t>
+  </si>
+  <si>
+    <t>24,433,555원</t>
+  </si>
+  <si>
+    <t>TBL_EXP_VALUATION_TAX_YEAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRICE_STOCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VALUATION_TENPERCENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAPITAL_GAINS_TAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GIFT_TAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REP_AGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022년</t>
+  </si>
+  <si>
+    <t>46세</t>
+  </si>
+  <si>
+    <t>2023년</t>
+  </si>
+  <si>
+    <t>47세</t>
+  </si>
+  <si>
+    <t>19.77억원</t>
+  </si>
+  <si>
+    <t>1.98억원</t>
+  </si>
+  <si>
+    <t>3,418만원</t>
+  </si>
+  <si>
+    <t>1,894만원</t>
+  </si>
+  <si>
+    <t>2026년</t>
+  </si>
+  <si>
+    <t>50세</t>
+  </si>
+  <si>
+    <t>177.69억원</t>
+  </si>
+  <si>
+    <t>17.77억원</t>
+  </si>
+  <si>
+    <t>43,879만원</t>
+  </si>
+  <si>
+    <t>51,485만원</t>
+  </si>
+  <si>
+    <t>2028년</t>
+  </si>
+  <si>
+    <t>52세</t>
+  </si>
+  <si>
+    <t>630.43억원</t>
+  </si>
+  <si>
+    <t>63.04억원</t>
+  </si>
+  <si>
+    <t>162,156만원</t>
+  </si>
+  <si>
+    <t>258,712만원</t>
+  </si>
+  <si>
+    <t>2030년</t>
+  </si>
+  <si>
+    <t>54세</t>
+  </si>
+  <si>
+    <t>2222.07억원</t>
+  </si>
+  <si>
+    <t>222.21억원</t>
+  </si>
+  <si>
+    <t>577,971만원</t>
+  </si>
+  <si>
+    <t>1,030,658만원</t>
+  </si>
+  <si>
+    <t>2033년</t>
+  </si>
+  <si>
+    <t>57세</t>
+  </si>
+  <si>
+    <t>14660.13억원</t>
+  </si>
+  <si>
+    <t>1466.01억원</t>
+  </si>
+  <si>
+    <t>3,827,416만원</t>
+  </si>
+  <si>
+    <t>7,063,120만원</t>
+  </si>
+  <si>
+    <t>기업ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평가년도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표자나이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주당가격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10%지분가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양도소득세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>증여세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BUYER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>YEAR</t>
-  </si>
-  <si>
-    <t>25FC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>32,956원</t>
-  </si>
-  <si>
-    <t>296,157원</t>
-  </si>
-  <si>
-    <t>1,050,713원</t>
-  </si>
-  <si>
-    <t>3,703,446원</t>
-  </si>
-  <si>
-    <t>24,433,555원</t>
-  </si>
-  <si>
-    <t>TBL_EXP_VALUATION_TAX_YEAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>COMPANY_VALUATION</t>
-  </si>
-  <si>
-    <t>PRICE_STOCK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VALUATION_TENPERCENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CAPITAL_GAINS_TAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GIFT_TAX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REP_AGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022년</t>
-  </si>
-  <si>
-    <t>46세</t>
-  </si>
-  <si>
-    <t>2023년</t>
-  </si>
-  <si>
-    <t>47세</t>
-  </si>
-  <si>
-    <t>19.77억원</t>
-  </si>
-  <si>
-    <t>1.98억원</t>
-  </si>
-  <si>
-    <t>3,418만원</t>
-  </si>
-  <si>
-    <t>1,894만원</t>
-  </si>
-  <si>
-    <t>2026년</t>
-  </si>
-  <si>
-    <t>50세</t>
-  </si>
-  <si>
-    <t>177.69억원</t>
-  </si>
-  <si>
-    <t>17.77억원</t>
-  </si>
-  <si>
-    <t>43,879만원</t>
-  </si>
-  <si>
-    <t>51,485만원</t>
-  </si>
-  <si>
-    <t>2028년</t>
-  </si>
-  <si>
-    <t>52세</t>
-  </si>
-  <si>
-    <t>630.43억원</t>
-  </si>
-  <si>
-    <t>63.04억원</t>
-  </si>
-  <si>
-    <t>162,156만원</t>
-  </si>
-  <si>
-    <t>258,712만원</t>
-  </si>
-  <si>
-    <t>2030년</t>
-  </si>
-  <si>
-    <t>54세</t>
-  </si>
-  <si>
-    <t>2222.07억원</t>
-  </si>
-  <si>
-    <t>222.21억원</t>
-  </si>
-  <si>
-    <t>577,971만원</t>
-  </si>
-  <si>
-    <t>1,030,658만원</t>
-  </si>
-  <si>
-    <t>2033년</t>
-  </si>
-  <si>
-    <t>57세</t>
-  </si>
-  <si>
-    <t>14660.13억원</t>
-  </si>
-  <si>
-    <t>1466.01억원</t>
-  </si>
-  <si>
-    <t>3,827,416만원</t>
-  </si>
-  <si>
-    <t>7,063,120만원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -789,7 +824,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -833,10 +868,10 @@
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" ht="24.75" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>7</v>
@@ -849,211 +884,211 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="A4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>24</v>
+      <c r="A5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
         <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" t="s">
+      <c r="G9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" t="s">
         <v>47</v>
       </c>
-      <c r="D10" t="s">
+      <c r="H10" t="s">
         <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
